--- a/quizsheets/dsaide_stochasticseir.xlsx
+++ b/quizsheets/dsaide_stochasticseir.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AppTitle</t>
+          <t>TaskID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TaskID</t>
+          <t>RecordID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RecordID</t>
+          <t>Record</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Record</t>
+          <t>Note</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
@@ -402,23 +397,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stochastic SEIR Model</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T2R1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>How many simulations produced an outbreak with 10 infected?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>How many simulations produced an outbreak with 10 infected?</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>Report integer</t>
         </is>
@@ -432,23 +424,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stochastic SEIR Model</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>How many simulations produced an outbreak (transmission rate = 0.004)?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>How many simulations produced an outbreak (transmission rate = 0.004)?</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>Report integer</t>
         </is>
@@ -462,23 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stochastic SEIR Model</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>6</v>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T6R1</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T6R1</t>
+          <t>As transmission decreases the probability of extinctions increases or decreases?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>As transmission decreases the probability of extinctions increases or decreases?</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Report 'increases' or 'decreases'</t>
         </is>

--- a/quizsheets/dsaide_stochasticseir.xlsx
+++ b/quizsheets/dsaide_stochasticseir.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,22 +397,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T2R1</t>
+          <t>T1R1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>How many simulations produced an outbreak with 10 infected?</t>
+          <t>Average number of susceptible at end of simulation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Report integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -424,22 +424,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T3R1</t>
+          <t>T2R1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>How many simulations produced an outbreak (transmission rate = 0.004)?</t>
+          <t>Random number seed that led to outbreak without and no outbreak with waning immunity</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Report integer</t>
+          <t>Report the integer</t>
         </is>
       </c>
     </row>
@@ -451,22 +451,265 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Average number (across all simulations) of susceptible at end of simulation, as reported by DSAIDE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Minimum number infected such that all 10 simulations produce outbreaks</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Report the integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T5R1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Theoretical value for susceptible at steady state, based on equation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T5R2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Average number (across all simulations) of susceptible at end of simulation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>T6R1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>As transmission decreases the probability of extinctions increases or decreases?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Report 'increases' or 'decreases'</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Average number (across all 20 simulations) of susceptible at end of simulation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>T6R2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>R0 based on model equation</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Report to one decimal place</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>T7R1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Number of simulations that DO NOT lead to extinction after 10 years of simulation (with bI=0.006)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>T7R2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Reproductive number for bI=0.006</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Report to one decimal place</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>T8R1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Number of simulations that DO lead to extinction after 10 years of simulation (with bI=0.007)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Report the rounded integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticseir</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>T8R2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reproductive number for bI=0.007</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Report to one decimal place</t>
         </is>
       </c>
     </row>
